--- a/ds-hs-gv-nd2.xlsx
+++ b/ds-hs-gv-nd2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="NguoiDung" sheetId="5" r:id="rId1"/>
@@ -243,21 +243,9 @@
     <t>NGUYỄN THỊ CHUYÊN</t>
   </si>
   <si>
-    <t>TenND</t>
-  </si>
-  <si>
     <t>MatKhau</t>
   </si>
   <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>gv</t>
-  </si>
-  <si>
     <t>chauthinguyet</t>
   </si>
   <si>
@@ -502,6 +490,18 @@
   </si>
   <si>
     <t>NGUYỄN THỊ LÝ LÝ</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>TenLND</t>
   </si>
 </sst>
 </file>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,16 +902,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>1660123</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>1660321</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>1660000</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>1660001</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,10 +963,10 @@
         <v>1660002</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>1660011</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>1660012</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>1660111</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>1660122</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,10 +1018,10 @@
         <v>1660222</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>1662220</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1040,10 +1040,10 @@
         <v>1660120</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>1662346</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
         <v>1665647</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,10 +1073,10 @@
         <v>1666954</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,10 +1084,10 @@
         <v>1666595</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>1666666</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,10 +1106,10 @@
         <v>1664444</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>1664563</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,10 +1128,10 @@
         <v>1662222</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1664561</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>1660009</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>1665555</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,10 +1172,10 @@
         <v>1667789</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>1663399</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,10 +1194,10 @@
         <v>1663388</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,10 +1205,10 @@
         <v>1668877</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,10 +1216,10 @@
         <v>1667722</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
         <v>1665577</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1238,10 +1238,10 @@
         <v>1766666</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,10 +1249,10 @@
         <v>1765432</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,10 +1260,10 @@
         <v>1764545</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,10 +1271,10 @@
         <v>1764343</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>1764444</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,10 +1293,10 @@
         <v>1768888</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>1763213</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,10 +1315,10 @@
         <v>1765498</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>1767779</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,10 +1337,10 @@
         <v>1763335</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,10 +1348,10 @@
         <v>1764656</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,10 +1359,10 @@
         <v>1769911</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,10 +1370,10 @@
         <v>1763359</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <v>1764114</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,10 +1392,10 @@
         <v>1769779</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,10 +1403,10 @@
         <v>1760000</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,10 +1414,10 @@
         <v>1760020</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,10 +1425,10 @@
         <v>1760300</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>1760199</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
         <v>1760987</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,10 +1458,10 @@
         <v>1767890</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,10 +1469,10 @@
         <v>1764612</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,10 +1480,10 @@
         <v>1761298</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,10 +1491,10 @@
         <v>1760999</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,10 +1502,10 @@
         <v>1760889</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,10 +1513,10 @@
         <v>1760081</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>1760607</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>1765354</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,10 +1546,10 @@
         <v>1761314</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>1760001</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,10 +1568,10 @@
         <v>1761009</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,10 +1579,10 @@
         <v>1002345678</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
         <v>1012346789</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,10 +1601,10 @@
         <v>1098765432</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
         <v>1032165498</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>1045612378</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,10 +1634,10 @@
         <v>1001234567</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,10 +1656,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,10 +1678,10 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>36226</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>61</v>
@@ -1971,7 +1971,7 @@
         <v>36412</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>61</v>
@@ -2220,7 +2220,7 @@
         <v>1766666</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2">
         <v>36445</v>
@@ -2294,7 +2294,7 @@
         <v>36220</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>62</v>
@@ -2311,7 +2311,7 @@
         <v>36350</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>62</v>
@@ -2634,7 +2634,7 @@
         <v>36252</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>63</v>
@@ -2651,7 +2651,7 @@
         <v>36292</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>63</v>
@@ -2766,7 +2766,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>36422</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>36337</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>36172</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>36162</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
         <v>36231</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>36295</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,16 +2885,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2989,7 +2989,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3059,7 +3059,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3129,7 +3129,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>2</v>
